--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/135.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/135.xlsx
@@ -479,13 +479,13 @@
         <v>-17.85871551505875</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.950035042825329</v>
+        <v>-9.750141763037854</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.098348550544933</v>
+        <v>-3.066180762462812</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.783072446926001</v>
+        <v>-6.532773801197882</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-17.5288444680404</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.24514864118068</v>
+        <v>-10.04071233230712</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.034798512551195</v>
+        <v>-3.024573424031807</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.756442702945931</v>
+        <v>-6.500579828510078</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-17.16122303591635</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.06700485976719</v>
+        <v>-10.86387778117781</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.835664586328541</v>
+        <v>-2.838047385445735</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.632092010555216</v>
+        <v>-6.383037133597061</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-16.77217957184023</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.79107466842885</v>
+        <v>-11.59136468088116</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.811522379888398</v>
+        <v>-2.801022353009334</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.879785288017832</v>
+        <v>-6.623424906073994</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.34044472360619</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.65288859528831</v>
+        <v>-12.44231199638199</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.604519979657868</v>
+        <v>-2.607452655494414</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.385393748108572</v>
+        <v>-6.138119424336892</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-15.86971701819157</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.33422512747457</v>
+        <v>-13.12880689588789</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.538678788666827</v>
+        <v>-2.547254247028158</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.472523023520258</v>
+        <v>-6.229791728834657</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.34990445508532</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.90895103762067</v>
+        <v>-13.69260073316114</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.449009606503845</v>
+        <v>-2.449611852434565</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.954198754016324</v>
+        <v>-5.722386439900722</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-14.79785430121804</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.91861634047174</v>
+        <v>-14.69875729885063</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.275340209308349</v>
+        <v>-2.261789675867163</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.743137739904858</v>
+        <v>-5.525910251154939</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-14.22103326995876</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.66130340377433</v>
+        <v>-15.44681220631833</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.241300221919861</v>
+        <v>-2.2332484556722</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.374798891755737</v>
+        <v>-5.154193588872652</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-13.64918124410494</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.37288315552498</v>
+        <v>-16.14768245434446</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.029165638975374</v>
+        <v>-2.025355778848431</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.141389316693444</v>
+        <v>-4.920810198416043</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-13.10996631240538</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.02406811426676</v>
+        <v>-16.79749272128785</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.166268234333929</v>
+        <v>-2.135776261015549</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.622449708955948</v>
+        <v>-4.395272070046317</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-12.631355171643</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.99700950764679</v>
+        <v>-17.77536991283921</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.946671038769658</v>
+        <v>-1.923838062613688</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.941741607306084</v>
+        <v>-3.726150656411381</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-12.24959479435682</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.58630715085572</v>
+        <v>-18.36650047844598</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.691816271652618</v>
+        <v>-1.665670942877691</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.687004670914621</v>
+        <v>-3.452325142476681</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-11.97889231704933</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.52057388164129</v>
+        <v>-19.29343551964019</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.556310937240753</v>
+        <v>-1.527023455783812</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.093517490796336</v>
+        <v>-2.858458285575986</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-11.83451943773485</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.44985244504417</v>
+        <v>-20.21412553237889</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.382942663010617</v>
+        <v>-1.357216287926625</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.652372346544376</v>
+        <v>-2.434673534892155</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-11.80270176585806</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.24585136551827</v>
+        <v>-21.01100163714339</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.218359323987278</v>
+        <v>-1.178375431108647</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.169790063798353</v>
+        <v>-1.941879255929586</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-11.86810148404774</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.20838437813913</v>
+        <v>-21.97234325020565</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.111133363713542</v>
+        <v>-1.076975545599479</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.790885727255959</v>
+        <v>-1.570201870555825</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-11.99982357325447</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.0552338028505</v>
+        <v>-22.81728119870213</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.024331395872898</v>
+        <v>-0.980118689176389</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.44691165469529</v>
+        <v>-1.220244615596487</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-12.16261542579901</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.76101366444227</v>
+        <v>-23.50740266609519</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.8174468263679426</v>
+        <v>-0.764999061183988</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.112730624660232</v>
+        <v>-0.885055478242616</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-12.33033512089458</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.37203143806562</v>
+        <v>-24.11946782394588</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5558757078930975</v>
+        <v>-0.4927446235902944</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.7453606069213988</v>
+        <v>-0.5227652740063723</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-12.471663768029</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.0522420322075</v>
+        <v>-24.79126006736053</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.4206714964465924</v>
+        <v>-0.3397479725818836</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.5248207655525232</v>
+        <v>-0.3386089422346534</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-12.57319181028685</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.46375929512863</v>
+        <v>-25.21306788031526</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.3602374265291848</v>
+        <v>-0.2746268582471381</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.3405596953580706</v>
+        <v>-0.141334123015525</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-12.61707643287791</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.92098178727023</v>
+        <v>-25.65409519384164</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.3941072139807302</v>
+        <v>-0.3061924003985396</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2985464955389716</v>
+        <v>-0.1123870414324687</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-12.60127587067517</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.17116260227278</v>
+        <v>-25.90762763837167</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.0866475740456352</v>
+        <v>-0.002123666899451703</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2832415935169939</v>
+        <v>-0.1036021062256705</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-12.52300307421959</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.18748870391641</v>
+        <v>-25.91683152726941</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.1308733730449859</v>
+        <v>-0.03476277788387479</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.452852376831555</v>
+        <v>-0.2690233526308793</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-12.38606121085924</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.21825561559447</v>
+        <v>-25.93216261389707</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.3224661328308052</v>
+        <v>-0.2295893364716004</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.4181446819981393</v>
+        <v>-0.242275777925233</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-12.20396772409108</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.25729686266849</v>
+        <v>-25.98150750330753</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1066918896963178</v>
+        <v>-0.03177773283596125</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.722030123257443</v>
+        <v>-0.5409504826535297</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-11.98598369822385</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.36360636174331</v>
+        <v>-26.07507819171735</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1661702215062793</v>
+        <v>-0.0879044351184409</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7798850095150305</v>
+        <v>-0.6057311971143904</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-11.75380023836921</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.09393110780944</v>
+        <v>-25.81777516396891</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.2593743254365272</v>
+        <v>-0.1879950903434367</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9134395908034781</v>
+        <v>-0.7507284510865065</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-11.52067084719878</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.68037144564499</v>
+        <v>-25.39211821397871</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.2699136292241167</v>
+        <v>-0.1974870099036881</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.436935319929895</v>
+        <v>-1.269589505006952</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-11.30672279724463</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.76109858496707</v>
+        <v>-25.46133721910291</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1791708782281133</v>
+        <v>-0.1170740858498066</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.609897732771938</v>
+        <v>-1.42787544636342</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-11.12343336372288</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.33243040532328</v>
+        <v>-25.04230497435063</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.225308153442356</v>
+        <v>-0.1658429139352362</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.112759992619794</v>
+        <v>-1.927556276620738</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-10.97763390084467</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.69215133484867</v>
+        <v>-24.41073228526576</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.2636293238600882</v>
+        <v>-0.2180288330623563</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.136352322340585</v>
+        <v>-1.962394894482571</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-10.87538191705462</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.33244031427224</v>
+        <v>-24.05589160134646</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.4655780951937128</v>
+        <v>-0.4180792204839306</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.284714298143025</v>
+        <v>-2.096813567758572</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-10.80862630989457</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.53099499581598</v>
+        <v>-23.26628172465912</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5562030154641406</v>
+        <v>-0.5164155071281351</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.450842528901687</v>
+        <v>-2.268911888613061</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-10.77735647013937</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.73608273647774</v>
+        <v>-22.47376535674092</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5103799555180994</v>
+        <v>-0.4648449262345761</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.619877250891212</v>
+        <v>-2.429397336846939</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-10.77014410954352</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.36677505791833</v>
+        <v>-22.09643209653953</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5652628890306151</v>
+        <v>-0.5230402123660485</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.895077456624294</v>
+        <v>-2.701337559172432</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-10.78228146405107</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.70507697999465</v>
+        <v>-21.44150273918503</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5145302155189265</v>
+        <v>-0.4581285748767707</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.085544278365725</v>
+        <v>-2.885520075549834</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-10.80497830563398</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.30794815789658</v>
+        <v>-21.05143066831864</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6876497359950704</v>
+        <v>-0.6514757032433812</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.271166948055717</v>
+        <v>-3.079574188269898</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-10.83327944997426</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.66454002704279</v>
+        <v>-20.42984740630201</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.4913830240947549</v>
+        <v>-0.4394982279329945</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.189536439837555</v>
+        <v>-2.986893776453319</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-10.86871660592947</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.17572580814411</v>
+        <v>-19.92516531635915</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.2442396233514919</v>
+        <v>-0.1940437342563141</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.303282366926471</v>
+        <v>-3.083423325305365</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.90659034369327</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.2534647190644</v>
+        <v>-19.00858628671275</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.2188798327470685</v>
+        <v>-0.1739994186056315</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.291119617586508</v>
+        <v>-3.05835156536346</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.95255706851423</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.91848505855599</v>
+        <v>-18.67741648633129</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.1660262061750203</v>
+        <v>-0.123986821750238</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.526885807160311</v>
+        <v>-3.286419480866328</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-11.00097779048095</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.34378533301559</v>
+        <v>-18.11362264905804</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.1950911184836522</v>
+        <v>-0.1506820272445174</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.595960796953257</v>
+        <v>-3.352692717851145</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-11.05445211160122</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.8757093218182</v>
+        <v>-17.65213206619004</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.1174537626322166</v>
+        <v>-0.07762697738768594</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.397913531866467</v>
+        <v>-3.176692890749822</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-11.11152964865886</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.18244570174312</v>
+        <v>-16.9668809354541</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.177036832864912</v>
+        <v>-0.1272075282493026</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.780640820838645</v>
+        <v>-3.551721905651065</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-11.17547583108115</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.51992280874041</v>
+        <v>-16.30753947204193</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.1248770983434753</v>
+        <v>-0.08536452836714604</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.63064230718099</v>
+        <v>-3.417106847832438</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-11.25247791093894</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.86541240507684</v>
+        <v>-15.67430406049617</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.03666116179592507</v>
+        <v>0.007734837140368027</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.936897455254646</v>
+        <v>-3.706302725303325</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-11.33970394589081</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.13668173660353</v>
+        <v>-14.95871806407595</v>
       </c>
       <c r="F50" t="n">
-        <v>0.02780533739673409</v>
+        <v>0.08721820769248699</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.895617424394684</v>
+        <v>-3.664459725421168</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-11.44315207452506</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.31652751738644</v>
+        <v>-14.14132632075846</v>
       </c>
       <c r="F51" t="n">
-        <v>0.06150492491133699</v>
+        <v>0.1166235198750037</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.078778741150431</v>
+        <v>-3.82876812608483</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-11.55705284738431</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.73833214698729</v>
+        <v>-13.5577631061942</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1267700545773414</v>
+        <v>0.1841405256297851</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.968685566554357</v>
+        <v>-3.747517294649078</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-11.68226085367479</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.05897255253013</v>
+        <v>-12.89080192252815</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2014616422893886</v>
+        <v>0.2541188843188109</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.027587837039283</v>
+        <v>-3.799781767593249</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.81396359645586</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.67263178797363</v>
+        <v>-12.50738074150537</v>
       </c>
       <c r="F54" t="n">
-        <v>0.05641201910590555</v>
+        <v>0.1213760258065503</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.238334635882547</v>
+        <v>-3.992304080880831</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.9488224286169</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.06461215170103</v>
+        <v>-11.9277059408851</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.08728909688487978</v>
+        <v>-0.04153149845304717</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.643567593439652</v>
+        <v>-4.412933586579806</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-12.08796361185067</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.63358735754572</v>
+        <v>-11.49827840767649</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.1099649654067493</v>
+        <v>-0.04806455757106848</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.767420778322381</v>
+        <v>-4.527661436381852</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-12.22508637027764</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.85540706123921</v>
+        <v>-10.72303078720652</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.1550810409993374</v>
+        <v>-0.09536704773822476</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.198340834054953</v>
+        <v>-4.943891928326006</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-12.36566052981084</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.60061775563638</v>
+        <v>-10.46453635989948</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.3178969191390427</v>
+        <v>-0.2613250785599444</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.20287077083819</v>
+        <v>-4.957154431104675</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-12.50423642195885</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.979230878162378</v>
+        <v>-9.85326983252213</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.2706206135775699</v>
+        <v>-0.2087987595589394</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.516182670143537</v>
+        <v>-5.264875917096605</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-12.6419073572812</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.667987562706024</v>
+        <v>-9.528345060596173</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.3710516686764506</v>
+        <v>-0.3128956594535034</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.38544293396606</v>
+        <v>-5.14340553133107</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-12.77718417244646</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.09620742069932</v>
+        <v>-8.965349853796269</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.3966733053377085</v>
+        <v>-0.3396825110676749</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.753389013029929</v>
+        <v>-5.515397131973033</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-12.9057325080456</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.620354581613945</v>
+        <v>-8.48931372247111</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.3459930010373869</v>
+        <v>-0.2911755290390798</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.787088600544532</v>
+        <v>-5.541385353113859</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-13.02848591442858</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.168945071934072</v>
+        <v>-8.039134889258358</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.3602897957405518</v>
+        <v>-0.3067160925122087</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.770657760478166</v>
+        <v>-5.523959498031521</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-13.13651711363007</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.823831969026173</v>
+        <v>-7.689413295750172</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.5084292023946823</v>
+        <v>-0.4581547594824541</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.941014805054706</v>
+        <v>-5.701072170874392</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-13.23256285798174</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.470169592362627</v>
+        <v>-7.336903041736697</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.4277675245868079</v>
+        <v>-0.3843272637579608</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.177946209581422</v>
+        <v>-5.949446248084778</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-13.30943024328848</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.215354102154112</v>
+        <v>-7.083239674178254</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.5516468940752199</v>
+        <v>-0.5038861733086033</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.123259660611533</v>
+        <v>-5.902012834889204</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-13.36545967187246</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.048270133288004</v>
+        <v>-6.916600843608765</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.6499046269023742</v>
+        <v>-0.6009655988800021</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.20818942914581</v>
+        <v>-5.989024279575315</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-13.40110104057121</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.763407808057728</v>
+        <v>-6.635050870997446</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.6013845525709373</v>
+        <v>-0.548871325872774</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.160049031596783</v>
+        <v>-5.952090893258806</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-13.41316342421898</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.661235476680899</v>
+        <v>-6.523792481448458</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9028871947130469</v>
+        <v>-0.8449930315469343</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.175419395132969</v>
+        <v>-5.975224992380136</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-13.4094376905721</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.475180760997129</v>
+        <v>-6.33547279737307</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7978607413167204</v>
+        <v>-0.7497203437676937</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.000637152195926</v>
+        <v>-5.805993885847984</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-13.3890035762435</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.403107633853427</v>
+        <v>-6.255779949975484</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.8708896065678684</v>
+        <v>-0.8199081793021871</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.898072051733844</v>
+        <v>-5.712462474346694</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-13.36406386695656</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.42103099644375</v>
+        <v>-6.268178360766599</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.007350679087179</v>
+        <v>-0.9512108845018579</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.692038481913601</v>
+        <v>-5.522728821564399</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-13.33744514093963</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.478519298221769</v>
+        <v>-6.324985862796848</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.067706195187536</v>
+        <v>-1.006578233219517</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.52644703557145</v>
+        <v>-5.351258931246313</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-13.31539628010578</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.695602771640429</v>
+        <v>-6.54185985937004</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.9463929170561026</v>
+        <v>-0.8860635855614289</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.371578185256672</v>
+        <v>-5.201980494244952</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-13.30549441069062</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.862529632872437</v>
+        <v>-6.714704441486508</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.298536586590009</v>
+        <v>-1.23225025730235</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.203276632226284</v>
+        <v>-5.033037418375319</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-13.30644902927993</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.328589429432201</v>
+        <v>-7.184469359750481</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.236884932508321</v>
+        <v>-1.167679019686957</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.95727226183025</v>
+        <v>-4.802769995995042</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-13.32523327811649</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.745893490209378</v>
+        <v>-7.612404370435139</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.309180628800332</v>
+        <v>-1.235431686892889</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.901826359295541</v>
+        <v>-4.739154496487094</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-13.35457679560177</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.348073959414569</v>
+        <v>-8.214349178189178</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.35391702761051</v>
+        <v>-1.286465483369937</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.550415858720771</v>
+        <v>-4.378906691494159</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-13.39681518190358</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.758308176657213</v>
+        <v>-8.625473672025061</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.383780570392487</v>
+        <v>-1.304755430439829</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.416180477684554</v>
+        <v>-4.239512943138302</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-13.44487705708997</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.200487612833669</v>
+        <v>-9.07306022927515</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.485533948078382</v>
+        <v>-1.419797495510076</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.066314868845108</v>
+        <v>-3.885562535812238</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-13.49598408085398</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.08090570203122</v>
+        <v>-9.959252024025904</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.479799519433706</v>
+        <v>-1.402895332541407</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.079852309983453</v>
+        <v>-3.893915425025259</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-13.5506404876803</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.818944997825</v>
+        <v>-10.7092184077085</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.5665229334573</v>
+        <v>-1.487471608898958</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.870362372212994</v>
+        <v>-3.688929239432354</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-13.60129448233038</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.59902367804357</v>
+        <v>-11.49656331600422</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.703651713421539</v>
+        <v>-1.622191405140319</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.549024891265669</v>
+        <v>-3.360679022584598</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-13.65184132598894</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.79386651228801</v>
+        <v>-12.68534441403295</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.768471704790924</v>
+        <v>-1.688372996005244</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.402325637924129</v>
+        <v>-3.214542738265252</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-13.69439533821728</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.66399405145197</v>
+        <v>-13.56280364278827</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.825279206821174</v>
+        <v>-1.751857572484774</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.068118423283388</v>
+        <v>-2.882679045833179</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-13.73227442841848</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.76599936624574</v>
+        <v>-14.67934141373635</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.010090153734979</v>
+        <v>-1.938409795676528</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.818932623296815</v>
+        <v>-2.629225155120205</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-13.76139829854764</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.81423459326854</v>
+        <v>-15.7338347615175</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.039862050397064</v>
+        <v>-1.968797030572175</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.383679015323632</v>
+        <v>-2.199156099072345</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-13.78234720476323</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.20535723171614</v>
+        <v>-17.12753658362492</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.96959566104552</v>
+        <v>-1.912683420592537</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.122906527322132</v>
+        <v>-1.927124230626961</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-13.79977146798224</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.8193370491356</v>
+        <v>-18.75302453524226</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.192335009291805</v>
+        <v>-2.133786230983607</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.943345593847859</v>
+        <v>-1.747563297152688</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-13.80961114493252</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.39472075777766</v>
+        <v>-20.33089578142425</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.397949625421114</v>
+        <v>-2.345567321751368</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.663628543634382</v>
+        <v>-1.465057586433923</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-13.81864483168516</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.06243138605957</v>
+        <v>-22.02705598378122</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.543182540844381</v>
+        <v>-2.502701140457764</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.800181262273585</v>
+        <v>-1.603246842928341</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-13.82105683785442</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.69772547250536</v>
+        <v>-23.6741724196931</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.660908527997182</v>
+        <v>-2.613291822561824</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.599947582612226</v>
+        <v>-1.403117901689717</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-13.81746693288795</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.80034930888657</v>
+        <v>-25.77754251733628</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.755919369719588</v>
+        <v>-2.722835120438546</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.569311593962587</v>
+        <v>-1.374694512220329</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-13.80108533302778</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.00960995191364</v>
+        <v>-27.99236738907108</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.597829812905745</v>
+        <v>-2.570414530755171</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.653076147543951</v>
+        <v>-1.469456600188743</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-13.76556462787138</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.26288691709458</v>
+        <v>-30.25363065898548</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.028213084221806</v>
+        <v>-3.008482983839325</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.018024089257065</v>
+        <v>-1.826758637042289</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-13.7077284798496</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.49699675091524</v>
+        <v>-32.48357714050248</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.022792870845332</v>
+        <v>-3.020868302327598</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.282999206470758</v>
+        <v>-2.086680125359076</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-13.61854162754542</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.74309913413892</v>
+        <v>-34.72450806410367</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.283460620424098</v>
+        <v>-3.296081600363522</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.452858743539313</v>
+        <v>-2.26518058230317</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-13.49732444835761</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.24126762397436</v>
+        <v>-37.22691846005983</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.535160142556282</v>
+        <v>-3.547165784262144</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.914925387732351</v>
+        <v>-2.715424877030129</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-13.34520563373894</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.67477323007451</v>
+        <v>-39.68108372004422</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.472840781029666</v>
+        <v>-3.482018485321715</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.401474638239417</v>
+        <v>-3.193725976746908</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-13.15834380595189</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.24628480042929</v>
+        <v>-42.25157409077735</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.651812560876061</v>
+        <v>-3.660414203843075</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.67774841280552</v>
+        <v>-3.483929961536608</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-12.95798048819982</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.54453382587158</v>
+        <v>-44.5488411935065</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.849349226152024</v>
+        <v>-3.864785051202419</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.179327626974888</v>
+        <v>-4.002319692554751</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-12.73009229607366</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.86243439787928</v>
+        <v>-46.8673047345364</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.971304027122702</v>
+        <v>-3.993063434445651</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.484928159906458</v>
+        <v>-4.307658379429487</v>
       </c>
     </row>
   </sheetData>
